--- a/DATA VIZ_FINAL/interesting data but not use/number of the Muslim Legal Regidents_1992-2012.xlsx
+++ b/DATA VIZ_FINAL/interesting data but not use/number of the Muslim Legal Regidents_1992-2012.xlsx
@@ -35,11 +35,11 @@
   </si>
   <si>
     <t>Unemployment rate in the US</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>unemployment rate of NY state_Annual</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -50,7 +50,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -90,6 +97,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -128,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,19 +154,31 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,39 +465,40 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="7"/>
-    <col min="2" max="2" width="14.46484375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="66" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1992</v>
       </c>
       <c r="B2" s="2">
         <v>50000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>9</v>
       </c>
       <c r="D2" s="4">
@@ -477,13 +506,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1993</v>
       </c>
       <c r="B3" s="2">
         <v>50000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>8.4</v>
       </c>
       <c r="D3" s="4">
@@ -491,13 +520,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1994</v>
       </c>
       <c r="B4" s="2">
         <v>50000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>7.2</v>
       </c>
       <c r="D4" s="4">
@@ -505,13 +534,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1995</v>
       </c>
       <c r="B5" s="2">
         <v>60000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>6.6</v>
       </c>
       <c r="D5" s="4">
@@ -519,13 +548,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1996</v>
       </c>
       <c r="B6" s="2">
         <v>70000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>6.6</v>
       </c>
       <c r="D6" s="4">
@@ -533,13 +562,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1997</v>
       </c>
       <c r="B7" s="2">
         <v>70000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>6.5</v>
       </c>
       <c r="D7" s="4">
@@ -547,13 +576,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>1998</v>
       </c>
       <c r="B8" s="2">
         <v>60000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>5.5</v>
       </c>
       <c r="D8" s="4">
@@ -561,13 +590,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>1999</v>
       </c>
       <c r="B9" s="2">
         <v>50000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
       <c r="D9" s="4">
@@ -575,13 +604,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>2000</v>
       </c>
       <c r="B10" s="2">
         <v>70000</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="D10" s="4">
@@ -589,13 +618,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>2001</v>
       </c>
       <c r="B11" s="2">
         <v>90000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>4.8</v>
       </c>
       <c r="D11" s="4">
@@ -603,13 +632,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2002</v>
       </c>
       <c r="B12" s="2">
         <v>90000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>6.4</v>
       </c>
       <c r="D12" s="4">
@@ -617,13 +646,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>2003</v>
       </c>
       <c r="B13" s="2">
         <v>60000</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>6.5</v>
       </c>
       <c r="D13" s="4">
@@ -631,13 +660,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>2004</v>
       </c>
       <c r="B14" s="2">
         <v>80000</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>5.6</v>
       </c>
       <c r="D14" s="4">
@@ -645,13 +674,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>2005</v>
       </c>
       <c r="B15" s="2">
         <v>100000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>4.9000000000000004</v>
       </c>
       <c r="D15" s="4">
@@ -659,13 +688,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>2006</v>
       </c>
       <c r="B16" s="2">
         <v>110000</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>4.5</v>
       </c>
       <c r="D16" s="4">
@@ -673,13 +702,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>2007</v>
       </c>
       <c r="B17" s="2">
         <v>90000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="D17" s="4">
@@ -687,13 +716,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>2008</v>
       </c>
       <c r="B18" s="2">
         <v>100000</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>5.3</v>
       </c>
       <c r="D18" s="4">
@@ -701,13 +730,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>2009</v>
       </c>
       <c r="B19" s="2">
         <v>120000</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>8.6</v>
       </c>
       <c r="D19" s="4">
@@ -715,13 +744,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2010</v>
       </c>
       <c r="B20" s="2">
         <v>110000</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>8.9</v>
       </c>
       <c r="D20" s="4">
@@ -729,13 +758,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>2011</v>
       </c>
       <c r="B21" s="2">
         <v>110000</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>8.6</v>
       </c>
       <c r="D21" s="4">
@@ -743,13 +772,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>2012</v>
       </c>
       <c r="B22" s="2">
         <v>100000</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>8.6999999999999993</v>
       </c>
       <c r="D22" s="4">
@@ -757,10 +786,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>2013</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>7.9</v>
       </c>
       <c r="D23" s="4">
@@ -768,10 +797,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>2014</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>6.5</v>
       </c>
       <c r="D24" s="4">
@@ -779,10 +808,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>2015</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>5.3</v>
       </c>
       <c r="D25" s="4">
@@ -790,10 +819,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>2016</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>4.8</v>
       </c>
       <c r="D26" s="4">
@@ -801,7 +830,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>2017</v>
       </c>
       <c r="C27" s="3"/>
